--- a/data/trans_dic/P23_1_R_2016_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_R_2016_2023-Estudios-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.1235600377313674</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09517476246970688</v>
+        <v>0.09517476246970685</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1892782031281809</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2398400890017343</v>
+        <v>0.2453388691294238</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2172336910364824</v>
+        <v>0.216241360284075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1058803754986472</v>
+        <v>0.1041717908102026</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08100716940672086</v>
+        <v>0.08005156119882167</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1712496888399824</v>
+        <v>0.169918770036954</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1448009077856451</v>
+        <v>0.1417822539747514</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3076055927629573</v>
+        <v>0.313865478235053</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2865953511988206</v>
+        <v>0.2871831355670718</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1469223655803636</v>
+        <v>0.1452859049547996</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1126337574463956</v>
+        <v>0.1115825442862992</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2082252581010424</v>
+        <v>0.2079607854655888</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1803744033548081</v>
+        <v>0.1781009732877555</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.3117569463969659</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2116715113299025</v>
+        <v>0.2116715113299026</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3386038943143047</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3405679423370485</v>
+        <v>0.3443410322870161</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2391200580984714</v>
+        <v>0.2394700460913781</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2909842591196969</v>
+        <v>0.2886385870379487</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1979250203613874</v>
+        <v>0.194594445799534</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.324250913202916</v>
+        <v>0.324246514727096</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2230836633537085</v>
+        <v>0.2235919748766511</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3835709620885515</v>
+        <v>0.3849293113382365</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2799575686464034</v>
+        <v>0.279182493227365</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3354969175507826</v>
+        <v>0.3324424201732579</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2292613005540657</v>
+        <v>0.2272075208030337</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3540903582896766</v>
+        <v>0.3551259140608671</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2502346795101519</v>
+        <v>0.2509296502727461</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.2167139450946821</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1374430987578466</v>
+        <v>0.1374430987578465</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1867055691372134</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1777582944159439</v>
+        <v>0.1811562880571178</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1135197329830837</v>
+        <v>0.1102121903939133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1547337511214142</v>
+        <v>0.1507223139464115</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1033724915203624</v>
+        <v>0.1040695708869811</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1782215086704764</v>
+        <v>0.1785989069806058</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1123523079807845</v>
+        <v>0.1138956080209003</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2512150436693375</v>
+        <v>0.2564039588709265</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1671708392246255</v>
+        <v>0.1669949805781593</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2236523747818998</v>
+        <v>0.2206022392513097</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1481587378121223</v>
+        <v>0.1490061156860952</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2254116848425455</v>
+        <v>0.225229004668514</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1482291960074744</v>
+        <v>0.1495505700675912</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3054187924027151</v>
+        <v>0.3049165615361447</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2169503658366851</v>
+        <v>0.2174143313959827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2256958571276005</v>
+        <v>0.2255950128371845</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1580214649862356</v>
+        <v>0.1573691544243875</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2691133468645274</v>
+        <v>0.2684160357699701</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1908205014249134</v>
+        <v>0.1906393024959097</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3375610733808575</v>
+        <v>0.3378409658839782</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2498677739526278</v>
+        <v>0.2503833712103864</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2536351529474195</v>
+        <v>0.2541540845927509</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1802535182463539</v>
+        <v>0.1792693646555501</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2905958591588667</v>
+        <v>0.2899089393498858</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2106535786191435</v>
+        <v>0.2096596043909808</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>180715</v>
+        <v>184858</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>125676</v>
+        <v>125102</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>105061</v>
+        <v>103366</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>66591</v>
+        <v>65805</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>298959</v>
+        <v>296635</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>202803</v>
+        <v>198576</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>231775</v>
+        <v>236492</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>165804</v>
+        <v>166144</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>145786</v>
+        <v>144162</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>92589</v>
+        <v>91725</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>363509</v>
+        <v>363047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>252626</v>
+        <v>249442</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>707150</v>
+        <v>714985</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>532842</v>
+        <v>533621</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>577948</v>
+        <v>573289</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>429494</v>
+        <v>422267</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1317291</v>
+        <v>1317274</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>981195</v>
+        <v>983431</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>796441</v>
+        <v>799261</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>623841</v>
+        <v>622114</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>666359</v>
+        <v>660292</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>497493</v>
+        <v>493037</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1438516</v>
+        <v>1442723</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1100614</v>
+        <v>1103671</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>97023</v>
+        <v>98878</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>80779</v>
+        <v>78426</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>84827</v>
+        <v>82628</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>75711</v>
+        <v>76222</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>194979</v>
+        <v>195392</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>162237</v>
+        <v>164465</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>137117</v>
+        <v>139949</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>118957</v>
+        <v>118831</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>122609</v>
+        <v>120937</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>108514</v>
+        <v>109134</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>246606</v>
+        <v>246407</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>214043</v>
+        <v>215951</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1030996</v>
+        <v>1029301</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>763331</v>
+        <v>764963</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>795953</v>
+        <v>795597</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>588541</v>
+        <v>586111</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1857513</v>
+        <v>1852700</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1382093</v>
+        <v>1380780</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1139499</v>
+        <v>1140443</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>879150</v>
+        <v>880964</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>894485</v>
+        <v>896316</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>671343</v>
+        <v>667677</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2005792</v>
+        <v>2001051</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1525742</v>
+        <v>1518543</v>
       </c>
     </row>
     <row r="20">
